--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC76AE0-DFB7-4309-A351-BCFE4698DA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13CCE4B-ECA2-4822-851E-5E0F52F29B61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>AssetID</t>
+  </si>
+  <si>
+    <t>00456789</t>
   </si>
 </sst>
 </file>
@@ -58,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,52 +344,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>21534554</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>21354</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>121548</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>213454</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5313857</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>24357</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1578465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13CCE4B-ECA2-4822-851E-5E0F52F29B61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FF5904-DA36-431B-988C-C13305C10AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39480" yWindow="1320" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AssetID</t>
   </si>
   <si>
     <t>00456789</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>2222222</t>
   </si>
 </sst>
 </file>
@@ -344,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -355,48 +367,99 @@
     <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>21534554</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>21354</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>121548</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>213454</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5313857</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>24357</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1578465</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
     </row>

--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FF5904-DA36-431B-988C-C13305C10AC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22588C-AF3F-4ECD-9E4D-544FC08FD674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39480" yWindow="1320" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1350" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>AssetID</t>
   </si>
   <si>
-    <t>00456789</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>0000000</t>
-  </si>
-  <si>
-    <t>1111111</t>
-  </si>
-  <si>
-    <t>2222222</t>
+    <t>E0000000</t>
+  </si>
+  <si>
+    <t>E1111111</t>
+  </si>
+  <si>
+    <t>E1212121</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>41111111</t>
+  </si>
+  <si>
+    <t>41212121</t>
+  </si>
+  <si>
+    <t>E6942000</t>
+  </si>
+  <si>
+    <t>43333333</t>
+  </si>
+  <si>
+    <t>E8787655</t>
+  </si>
+  <si>
+    <t>E3213214</t>
+  </si>
+  <si>
+    <t>49856473</t>
   </si>
 </sst>
 </file>
@@ -359,7 +380,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,52 +393,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>21534554</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>21354</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>121548</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>213454</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5313857</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>24357</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -425,15 +446,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1578465</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -441,7 +462,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -449,7 +470,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -457,7 +478,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>

--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22588C-AF3F-4ECD-9E4D-544FC08FD674}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DFC70-154D-4300-913B-C1EA6954B77F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1350" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3285" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,45 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>AssetID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>E0000000</t>
-  </si>
-  <si>
-    <t>E1111111</t>
-  </si>
-  <si>
-    <t>E1212121</t>
-  </si>
-  <si>
-    <t>40000000</t>
-  </si>
-  <si>
-    <t>41111111</t>
-  </si>
-  <si>
-    <t>41212121</t>
-  </si>
-  <si>
-    <t>E6942000</t>
-  </si>
-  <si>
-    <t>43333333</t>
-  </si>
-  <si>
-    <t>E8787655</t>
-  </si>
-  <si>
-    <t>E3213214</t>
-  </si>
-  <si>
-    <t>49856473</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Asset ID</t>
+  </si>
+  <si>
+    <t>RFID Tag</t>
+  </si>
+  <si>
+    <t>4524534534werwerwerwer</t>
+  </si>
+  <si>
+    <t>waweaser</t>
+  </si>
+  <si>
+    <t>45245345345asrasrsar</t>
+  </si>
+  <si>
+    <t>45345345zxvzxvzxb</t>
+  </si>
+  <si>
+    <t>E1010101</t>
+  </si>
+  <si>
+    <t>E0101010</t>
+  </si>
+  <si>
+    <t>E6996696</t>
+  </si>
+  <si>
+    <t>4867530</t>
   </si>
 </sst>
 </file>
@@ -377,15 +368,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E6:E7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,90 +390,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6DFC70-154D-4300-913B-C1EA6954B77F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52F0AE-B0DC-44B3-9DC6-B165FD84DB72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3285" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Asset ID</t>
   </si>
@@ -28,38 +28,32 @@
     <t>RFID Tag</t>
   </si>
   <si>
-    <t>4524534534werwerwerwer</t>
-  </si>
-  <si>
     <t>waweaser</t>
   </si>
   <si>
-    <t>45245345345asrasrsar</t>
-  </si>
-  <si>
-    <t>45345345zxvzxvzxb</t>
-  </si>
-  <si>
-    <t>E1010101</t>
-  </si>
-  <si>
-    <t>E0101010</t>
-  </si>
-  <si>
-    <t>E6996696</t>
-  </si>
-  <si>
-    <t>4867530</t>
+    <t>e1264342</t>
+  </si>
+  <si>
+    <t>e1264343</t>
+  </si>
+  <si>
+    <t>e1264344</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,37 +384,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>45345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3">
+        <v>45245345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52F0AE-B0DC-44B3-9DC6-B165FD84DB72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA1F9EE-2208-4F87-B0B9-730FFA7EDF9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3285" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,16 @@
     <t>RFID Tag</t>
   </si>
   <si>
-    <t>waweaser</t>
-  </si>
-  <si>
-    <t>e1264342</t>
-  </si>
-  <si>
-    <t>e1264343</t>
-  </si>
-  <si>
-    <t>e1264344</t>
+    <t>E0000000</t>
+  </si>
+  <si>
+    <t>E6394850</t>
+  </si>
+  <si>
+    <t>E2354657</t>
+  </si>
+  <si>
+    <t>m3m3tag</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +392,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>45245345</v>
@@ -400,10 +400,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/AssetList.xlsx
+++ b/AssetList.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA1F9EE-2208-4F87-B0B9-730FFA7EDF9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83293E3E-718E-4D43-B9EA-6DF334FEA31D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1785" windowWidth="21600" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Asset ID</t>
   </si>
@@ -34,10 +34,16 @@
     <t>E6394850</t>
   </si>
   <si>
-    <t>E2354657</t>
-  </si>
-  <si>
-    <t>m3m3tag</t>
+    <t>499999</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -365,13 +371,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -386,24 +392,24 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>45345</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>45245345</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
